--- a/Support Documentation/Design/Database/Data Dictionary.xlsx
+++ b/Support Documentation/Design/Database/Data Dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b23540b5940dc24b/Documents/GitHub/pet-adoption-platform/Support Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b23540b5940dc24b/Documents/GitHub/pet-adoption-platform/Support Documentation/Design/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="362" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D6F260-1737-4010-BD29-AE05ECB0D816}"/>
+  <xr:revisionPtr revIDLastSave="490" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E921F18A-BA5F-4246-881C-8EE72B6045A4}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
+    <workbookView xWindow="15705" yWindow="0" windowWidth="13200" windowHeight="15585" firstSheet="3" activeTab="5" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Pet" sheetId="2" r:id="rId3"/>
     <sheet name="Image" sheetId="3" r:id="rId4"/>
     <sheet name="Message" sheetId="7" r:id="rId5"/>
+    <sheet name="Application" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="146">
   <si>
     <t>Entities</t>
   </si>
@@ -147,9 +148,6 @@
     <t>Birthdate</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>General size of pet</t>
   </si>
   <si>
@@ -334,6 +332,153 @@
   </si>
   <si>
     <t>Enum {pet, profile}</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Whether the message has been read or not</t>
+  </si>
+  <si>
+    <t>Each record represents an application to adopt a pet.</t>
+  </si>
+  <si>
+    <t>ApplicationID</t>
+  </si>
+  <si>
+    <t>The ID of the applicant</t>
+  </si>
+  <si>
+    <t>The ID of the pet</t>
+  </si>
+  <si>
+    <t>ApplicationDateTime</t>
+  </si>
+  <si>
+    <t>The date and time that the application was submitted</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>ResidenceType</t>
+  </si>
+  <si>
+    <t>The status of the application (pending, approved, denied, withdrawn)</t>
+  </si>
+  <si>
+    <t>The type of home (house, apartment, condo, etc.)</t>
+  </si>
+  <si>
+    <t>OwnOrRent</t>
+  </si>
+  <si>
+    <t>Whether the applicant owns or rents</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>HasAllergies</t>
+  </si>
+  <si>
+    <t>Whether anyone in the household has pet allergies</t>
+  </si>
+  <si>
+    <t>CurrentPets</t>
+  </si>
+  <si>
+    <t>Short description of current pets</t>
+  </si>
+  <si>
+    <t>PreviousPets</t>
+  </si>
+  <si>
+    <t>Info about past pets and outcomes</t>
+  </si>
+  <si>
+    <t>HoursAlonePerDay</t>
+  </si>
+  <si>
+    <t>Average hours the pet will be alone</t>
+  </si>
+  <si>
+    <t>PetLocationWhenAlone</t>
+  </si>
+  <si>
+    <t>Where the pet stays when alone (crate, indoors, yard)</t>
+  </si>
+  <si>
+    <t>PetSleepLocation</t>
+  </si>
+  <si>
+    <t>Where the pet will sleep at night</t>
+  </si>
+  <si>
+    <t>VetName</t>
+  </si>
+  <si>
+    <t>Current or previous vet name (if any)</t>
+  </si>
+  <si>
+    <t>VetPhone</t>
+  </si>
+  <si>
+    <t>Vet contact number</t>
+  </si>
+  <si>
+    <t>WhyAdopt</t>
+  </si>
+  <si>
+    <t>Reason for adopting this pet</t>
+  </si>
+  <si>
+    <t>ExperienceWithPets</t>
+  </si>
+  <si>
+    <t>Experience caring for animals</t>
+  </si>
+  <si>
+    <t>AgreedToTerms</t>
+  </si>
+  <si>
+    <t>Confirms applicant agreed to adoption terms</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Digital signature</t>
+  </si>
+  <si>
+    <t>Internal notes for shelter staff</t>
+  </si>
+  <si>
+    <t>ReviewedBy</t>
+  </si>
+  <si>
+    <t>Name of person who reviewed application</t>
+  </si>
+  <si>
+    <t>When the application was reviewed</t>
+  </si>
+  <si>
+    <t>ReviewedDateTime</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Personal references</t>
+  </si>
+  <si>
+    <t>HouseholdMembers</t>
+  </si>
+  <si>
+    <t>The number of adults and children in the household</t>
   </si>
 </sst>
 </file>
@@ -401,7 +546,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -488,7 +651,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F851650-791A-4B1B-AD76-4200E4AD3FB8}" name="Table134" displayName="Table134" ref="A3:H14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F851650-791A-4B1B-AD76-4200E4AD3FB8}" name="Table134" displayName="Table134" ref="A3:H14" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A3:H14" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{481A897D-79ED-4701-A306-8AE478D3E8D1}" name="Column Name"/>
@@ -539,8 +702,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4607B877-37BB-47F2-8507-417D87380272}" name="Table134567" displayName="Table134567" ref="A3:H8" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A3:H8" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4607B877-37BB-47F2-8507-417D87380272}" name="Table134567" displayName="Table134567" ref="A3:H9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A3:H9" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FBEFA340-7F68-401A-9E6D-41F0196FC817}" name="Column Name"/>
     <tableColumn id="2" xr3:uid="{6E519037-41AF-4060-8855-372EB9BDAF77}" name="Data Type"/>
@@ -550,6 +713,23 @@
     <tableColumn id="7" xr3:uid="{524453F3-8453-4768-906D-3F3FA989198E}" name="Description"/>
     <tableColumn id="8" xr3:uid="{211023E5-9877-4E18-8F50-7CEF6B5D46D0}" name="Constraints / Rules"/>
     <tableColumn id="9" xr3:uid="{5AA2A702-FA2C-4C72-9FEA-C78F40419A5D}" name="Examples"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{61699D4B-2716-4CCA-90DA-A05266540E53}" name="Table1345675" displayName="Table1345675" ref="A3:H27" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:H27" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{909BEE94-68FC-428D-B165-D3EFFE5B968F}" name="Column Name"/>
+    <tableColumn id="2" xr3:uid="{39B0E195-6CFF-446F-9FB7-E420AFCB09F2}" name="Data Type"/>
+    <tableColumn id="4" xr3:uid="{F9179E85-A542-4E4D-9DA1-1A3950A9B2C0}" name="Nullable?"/>
+    <tableColumn id="5" xr3:uid="{3F36D75E-363C-4851-ABAF-01332729938C}" name="Key"/>
+    <tableColumn id="6" xr3:uid="{4FBB16A2-4CE0-449D-A4C1-F63537F8A44E}" name="Default"/>
+    <tableColumn id="7" xr3:uid="{80CA83F6-525E-4E94-8455-860C4943E243}" name="Description"/>
+    <tableColumn id="8" xr3:uid="{6586DD46-0065-40EF-9364-0B174FA1FE31}" name="Constraints / Rules"/>
+    <tableColumn id="9" xr3:uid="{68BC1091-AD98-4616-BD12-93A3DC6E7D5C}" name="Examples"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -874,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EB38A2-ED52-43FF-841F-8E6F88246B9B}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -889,18 +1069,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -979,12 +1159,12 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1015,10 +1195,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1038,117 +1218,117 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <v>5551119876</v>
@@ -1156,30 +1336,30 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1270,10 +1450,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1282,15 +1462,15 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1304,7 +1484,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1313,7 +1493,7 @@
         <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1321,7 +1501,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -1338,13 +1518,13 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2">
         <v>42826</v>
@@ -1355,16 +1535,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1372,7 +1552,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -1381,15 +1561,15 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1403,19 +1583,19 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1453,7 +1633,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1484,7 +1664,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1507,10 +1687,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1519,52 +1699,52 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
-      </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1577,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADE156F-D2B9-4B6C-8D99-0B4E3462A308}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,7 +1783,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1634,7 +1814,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1657,10 +1837,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1669,15 +1849,15 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1686,35 +1866,468 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F296A1B4-A22B-4810-958A-BDEBDBACE2FE}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Support Documentation/Design/Database/Data Dictionary.xlsx
+++ b/Support Documentation/Design/Database/Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b23540b5940dc24b/Documents/GitHub/pet-adoption-platform/Support Documentation/Design/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="490" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E921F18A-BA5F-4246-881C-8EE72B6045A4}"/>
+  <xr:revisionPtr revIDLastSave="525" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0609DB5A-48C9-4516-B1FB-EF15151C6D27}"/>
   <bookViews>
-    <workbookView xWindow="15705" yWindow="0" windowWidth="13200" windowHeight="15585" firstSheet="3" activeTab="5" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="150">
   <si>
     <t>Entities</t>
   </si>
@@ -217,15 +217,9 @@
     <t>SenderID</t>
   </si>
   <si>
-    <t>RecipientID</t>
-  </si>
-  <si>
     <t>The ID of the sender</t>
   </si>
   <si>
-    <t>The ID of the recipient</t>
-  </si>
-  <si>
     <t>Each record represents an animal shelter that can list pets for adoption or a person who can view available pets and apply for adoption.</t>
   </si>
   <si>
@@ -280,9 +274,6 @@
     <t>ImageDescription</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>ProfileEmail</t>
   </si>
   <si>
@@ -334,12 +325,6 @@
     <t>Enum {pet, profile}</t>
   </si>
   <si>
-    <t>Read</t>
-  </si>
-  <si>
-    <t>Whether the message has been read or not</t>
-  </si>
-  <si>
     <t>Each record represents an application to adopt a pet.</t>
   </si>
   <si>
@@ -479,6 +464,33 @@
   </si>
   <si>
     <t>The number of adults and children in the household</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>ThreadKey</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>The thread identifier</t>
+  </si>
+  <si>
+    <t>ShelterNotes</t>
+  </si>
+  <si>
+    <t>Entities (tables)</t>
+  </si>
+  <si>
+    <t>Entity Relationship Diagram (ERD)</t>
+  </si>
+  <si>
+    <t>This is a list of all entities (tables) used by the app. A data dictionary for each entity can be found on the other tabs.</t>
+  </si>
+  <si>
+    <t>This diagram shows how the tables relate to each other and the Supabase authentication table (auth).</t>
   </si>
 </sst>
 </file>
@@ -510,18 +522,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -536,17 +542,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -650,8 +680,76 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5372100</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C5810A-6262-292F-DDF3-A2B90863AE76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="3181350"/>
+          <a:ext cx="6219825" cy="7648575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F851650-791A-4B1B-AD76-4200E4AD3FB8}" name="Table134" displayName="Table134" ref="A3:H14" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D9C9FD4D-5ECC-4562-84A9-43FF2C96BBC9}" name="Table5" displayName="Table5" ref="A3:D8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:D8" xr:uid="{D9C9FD4D-5ECC-4562-84A9-43FF2C96BBC9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0F0C2776-03D6-4C4B-8FA1-7285B22C7862}" name="Entities"/>
+    <tableColumn id="2" xr3:uid="{5AC8FBF0-0672-40EE-AC9B-9DE0E93138FF}" name="Description" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4C6C88F2-8F3C-4A20-A26B-B30994E91779}" name="DD Complete?"/>
+    <tableColumn id="4" xr3:uid="{E6DA9D7F-8C42-4952-ADBC-7F04C41AFA93}" name="ERD Complete?"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F851650-791A-4B1B-AD76-4200E4AD3FB8}" name="Table134" displayName="Table134" ref="A3:H14" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A3:H14" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{481A897D-79ED-4701-A306-8AE478D3E8D1}" name="Column Name"/>
@@ -667,8 +765,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}" name="Table1" displayName="Table1" ref="A3:H13" totalsRowShown="0" headerRowDxfId="3">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}" name="Table1" displayName="Table1" ref="A3:H13" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A3:H13" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1E9FD76C-67CF-4C3A-B2FF-7F27BC227782}" name="Column Name"/>
@@ -684,8 +782,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC571A79-7597-4ED5-B7C7-7BAE304AE8C8}" name="Table13" displayName="Table13" ref="A3:H8" totalsRowShown="0" headerRowDxfId="2">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC571A79-7597-4ED5-B7C7-7BAE304AE8C8}" name="Table13" displayName="Table13" ref="A3:H8" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A3:H8" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{EB709C33-59D5-425D-8377-7248B32C02CE}" name="Column Name"/>
@@ -701,9 +799,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4607B877-37BB-47F2-8507-417D87380272}" name="Table134567" displayName="Table134567" ref="A3:H9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A3:H9" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4607B877-37BB-47F2-8507-417D87380272}" name="Table134567" displayName="Table134567" ref="A3:H8" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A3:H8" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FBEFA340-7F68-401A-9E6D-41F0196FC817}" name="Column Name"/>
     <tableColumn id="2" xr3:uid="{6E519037-41AF-4060-8855-372EB9BDAF77}" name="Data Type"/>
@@ -718,8 +816,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{61699D4B-2716-4CCA-90DA-A05266540E53}" name="Table1345675" displayName="Table1345675" ref="A3:H27" totalsRowShown="0" headerRowDxfId="0">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{61699D4B-2716-4CCA-90DA-A05266540E53}" name="Table1345675" displayName="Table1345675" ref="A3:H27" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A3:H27" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{909BEE94-68FC-428D-B165-D3EFFE5B968F}" name="Column Name"/>
@@ -1052,89 +1150,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EB38A2-ED52-43FF-841F-8E6F88246B9B}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
+      <c r="B8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1143,7 +1280,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,12 +1296,12 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1195,10 +1332,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1207,7 +1344,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -1218,33 +1355,33 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1252,13 +1389,13 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1266,7 +1403,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -1280,7 +1417,7 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -1294,7 +1431,7 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1308,7 +1445,7 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -1322,7 +1459,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1336,30 +1473,30 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
         <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1374,9 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD6FC8F-B656-4122-87D8-AAB6B1AEAB10}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1430,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1439,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -1450,10 +1585,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1462,15 +1597,15 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1484,7 +1619,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1493,7 +1628,7 @@
         <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1501,7 +1636,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -1518,13 +1653,13 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2">
         <v>42826</v>
@@ -1535,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1544,7 +1679,7 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1552,7 +1687,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -1561,15 +1696,15 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1583,19 +1718,19 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1610,9 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68F5497-3B2C-49F6-9D76-3F15F3B4A916}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1687,10 +1820,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1699,32 +1832,32 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1735,10 +1868,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -1757,11 +1890,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADE156F-D2B9-4B6C-8D99-0B4E3462A308}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1783,7 +1914,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1840,7 +1971,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1849,69 +1980,55 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1926,9 +2043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F296A1B4-A22B-4810-958A-BDEBDBACE2FE}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1950,7 +2065,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1981,10 +2096,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -2004,10 +2119,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -2016,7 +2131,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2024,7 +2139,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -2033,21 +2148,21 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2055,279 +2170,279 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
